--- a/modelos/fisico/iteracion_2/Diccionario/diccionario_datos_bicicletas.xlsx
+++ b/modelos/fisico/iteracion_2/Diccionario/diccionario_datos_bicicletas.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\bici-go-bd\modelos\fisico\iteracion_2\Diccionario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9D52BB-F507-4EF3-ABB1-DDEC810756DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diccionario" sheetId="1" r:id="rId1"/>
     <sheet name="Relaciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -299,8 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,11 +369,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +455,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +507,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,14 +700,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="37.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -709,7 +770,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -729,7 +790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -749,7 +810,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -772,7 +833,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -795,7 +856,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -818,7 +879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -841,7 +902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -861,7 +922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -881,7 +942,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -904,7 +965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -924,7 +985,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -947,7 +1008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -970,7 +1031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -993,7 +1054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1016,7 +1077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1123,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1215,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1180,7 +1241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1284,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1307,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1269,7 +1330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1335,7 +1396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1358,7 +1419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1442,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1407,14 +1468,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1431,7 +1492,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1448,7 +1509,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1543,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1499,7 +1560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
